--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\School\CapStoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>Name 3</t>
   </si>
   <si>
-    <t>Name 4</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Joel Silva</t>
+  </si>
+  <si>
+    <t>Oliver</t>
   </si>
 </sst>
 </file>
@@ -400,15 +400,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -425,33 +425,33 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -473,9 +473,12 @@
         <f>F4</f>
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
       <c r="I4">
         <f>H4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -495,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I13" si="1">H5</f>
+        <f>H5</f>
         <v>0</v>
       </c>
     </row>
@@ -504,11 +507,11 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="2">B6+C5</f>
+        <f t="shared" ref="C6:C13" si="1">B6+C5</f>
         <v>11</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="3">D6+E5</f>
+        <f t="shared" ref="E6:E13" si="2">D6+E5</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -516,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I13" si="3">H6</f>
         <v>0</v>
       </c>
     </row>
@@ -525,19 +528,19 @@
         <v>3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -546,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -567,19 +570,19 @@
         <v>5</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -588,19 +591,19 @@
         <v>6</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -609,19 +612,19 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -630,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -651,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\Capstone\Git Folder\MillerConstruction-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -38,9 +38,6 @@
     <t>Cody Noteb</t>
   </si>
   <si>
-    <t>Name 4</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -78,12 +75,15 @@
   </si>
   <si>
     <t>Aaron O</t>
+  </si>
+  <si>
+    <t>Oliver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -398,20 +398,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" activeCellId="1" sqref="H5 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -419,44 +419,44 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -479,14 +479,17 @@
         <f t="shared" ref="G4:G13" si="0">F4</f>
         <v>11</v>
       </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
       <c r="I4">
         <f t="shared" ref="I4:I13" si="1">H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C13" si="2">B5+C4</f>
@@ -505,52 +508,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -568,93 +571,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\School\CapStoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,21 +524,33 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
       <c r="C5">
         <f t="shared" ref="C5:C13" si="2">B5+C4</f>
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>G4+F5</f>
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E13" si="3">D5+E4</f>
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I4+H5</f>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -547,11 +559,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>D6+E5</f>
+        <v>20</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -568,11 +580,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" ref="E5:E13" si="3">D7+E6</f>
+        <v>20</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -589,11 +601,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -610,11 +622,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -631,11 +643,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -652,11 +664,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -673,11 +685,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -694,11 +706,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\School\CapStoneProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,9 +557,12 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <f>D6+E5</f>
@@ -580,10 +583,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E5:E13" si="3">D7+E6</f>
+        <f t="shared" ref="E7:E13" si="3">D7+E6</f>
         <v>20</v>
       </c>
       <c r="G7">
@@ -601,7 +604,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
@@ -622,7 +625,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
@@ -643,7 +646,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
@@ -664,7 +667,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -685,7 +688,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -706,7 +709,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\School\CapStoneProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\Capstone\Git Folder\MillerConstruction-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -431,21 +431,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -520,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -553,7 +553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -561,9 +561,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="E6">
         <f>D6+E5</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -574,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -583,8 +586,8 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E5:E13" si="3">D7+E6</f>
-        <v>20</v>
+        <f t="shared" ref="E7:E13" si="3">D7+E6</f>
+        <v>30</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -595,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -605,7 +608,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -616,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -626,7 +629,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -637,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -647,7 +650,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -668,7 +671,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -689,7 +692,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -700,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -710,7 +713,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\Capstone\Git Folder\MillerConstruction-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -432,20 +432,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -520,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -553,7 +553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -564,9 +564,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="E6">
         <f>D6+E5</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -577,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -587,7 +590,7 @@
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E13" si="3">D7+E6</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -598,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -608,7 +611,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -619,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -629,7 +632,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -650,7 +653,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -671,7 +674,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -692,7 +695,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -703,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -713,7 +716,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,9 +569,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>H6+I5</f>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,7 +586,7 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E5:E13" si="3">D7+E6</f>
+        <f t="shared" ref="E7:E13" si="3">D7+E6</f>
         <v>20</v>
       </c>
       <c r="G7">

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\School\CapStoneProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Desktop\ProjectStone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,42 +590,66 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G6:G13" si="2">F7</f>
-        <v>0</v>
+        <f>F7 + G6</f>
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I6:I13" si="3">H7</f>
-        <v>0</v>
+        <f>H7+I6</f>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F8+G7</f>
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>H8+I7</f>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,18 +658,18 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G7:G13" si="2">F9</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I7:I13" si="3">H9</f>
         <v>0</v>
       </c>
     </row>
@@ -655,11 +679,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -676,11 +700,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -697,11 +721,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -718,11 +742,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,42 +656,66 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G7:G13" si="2">F9</f>
-        <v>0</v>
+        <f>F9+G8</f>
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I7:I13" si="3">H9</f>
-        <v>0</v>
+        <f>H9+I8</f>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F10+G9</f>
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>H10+I9</f>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,18 +724,18 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G9:G13" si="2">F11</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I9:I13" si="3">H11</f>
         <v>0</v>
       </c>
     </row>
@@ -721,11 +745,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -742,11 +766,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -432,7 +432,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -731,11 +731,11 @@
         <v>84</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G9:G13" si="2">F11</f>
+        <f t="shared" ref="G11:G13" si="2">F11</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I9:I13" si="3">H11</f>
+        <f t="shared" ref="I11:I13" si="3">H11</f>
         <v>0</v>
       </c>
     </row>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -173,8 +173,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D3" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,21 +497,33 @@
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">F12</f>
-        <v>0</v>
+        <f aca="false">F12+G11</f>
+        <v>102</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="n">
-        <f aca="false">H12</f>
-        <v>0</v>
+        <f aca="false">H12+I11</f>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,11 +532,11 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>
